--- a/outname.xlsx
+++ b/outname.xlsx
@@ -7,16 +7,1100 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="P12_E164" sheetId="1" r:id="rId1"/>
+    <sheet name="P12_E214" sheetId="2" r:id="rId2"/>
+    <sheet name="P6_E164" sheetId="3" r:id="rId3"/>
+    <sheet name="P6_E214" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="356">
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>E164_INTAL_TT0</t>
+  </si>
+  <si>
+    <t>8613446664</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>861390565</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8613440648</t>
+  </si>
+  <si>
+    <t>8613440649</t>
+  </si>
+  <si>
+    <t>8613440650</t>
+  </si>
+  <si>
+    <t>8613440651</t>
+  </si>
+  <si>
+    <t>8613440654</t>
+  </si>
+  <si>
+    <t>8613440655</t>
+  </si>
+  <si>
+    <t>8613440656</t>
+  </si>
+  <si>
+    <t>8613440658</t>
+  </si>
+  <si>
+    <t>8613440663</t>
+  </si>
+  <si>
+    <t>8613440664</t>
+  </si>
+  <si>
+    <t>8613440666</t>
+  </si>
+  <si>
+    <t>8613441648</t>
+  </si>
+  <si>
+    <t>8613441650</t>
+  </si>
+  <si>
+    <t>8613441651</t>
+  </si>
+  <si>
+    <t>8613441652</t>
+  </si>
+  <si>
+    <t>8613441654</t>
+  </si>
+  <si>
+    <t>8613441655</t>
+  </si>
+  <si>
+    <t>8613441656</t>
+  </si>
+  <si>
+    <t>8613441657</t>
+  </si>
+  <si>
+    <t>8613441660</t>
+  </si>
+  <si>
+    <t>8613441661</t>
+  </si>
+  <si>
+    <t>8613441662</t>
+  </si>
+  <si>
+    <t>8613441663</t>
+  </si>
+  <si>
+    <t>8613441664</t>
+  </si>
+  <si>
+    <t>8613442648</t>
+  </si>
+  <si>
+    <t>8613442650</t>
+  </si>
+  <si>
+    <t>8613442651</t>
+  </si>
+  <si>
+    <t>8613442652</t>
+  </si>
+  <si>
+    <t>8613442653</t>
+  </si>
+  <si>
+    <t>8613442656</t>
+  </si>
+  <si>
+    <t>8613442657</t>
+  </si>
+  <si>
+    <t>8613442659</t>
+  </si>
+  <si>
+    <t>8613442661</t>
+  </si>
+  <si>
+    <t>8613442662</t>
+  </si>
+  <si>
+    <t>8613442663</t>
+  </si>
+  <si>
+    <t>8613442664</t>
+  </si>
+  <si>
+    <t>8613442665</t>
+  </si>
+  <si>
+    <t>8613442666</t>
+  </si>
+  <si>
+    <t>8613443648</t>
+  </si>
+  <si>
+    <t>8613443650</t>
+  </si>
+  <si>
+    <t>8613443651</t>
+  </si>
+  <si>
+    <t>8613443652</t>
+  </si>
+  <si>
+    <t>8613443653</t>
+  </si>
+  <si>
+    <t>8613443654</t>
+  </si>
+  <si>
+    <t>8613443656</t>
+  </si>
+  <si>
+    <t>8613443657</t>
+  </si>
+  <si>
+    <t>8613443658</t>
+  </si>
+  <si>
+    <t>8613443659</t>
+  </si>
+  <si>
+    <t>8613443664</t>
+  </si>
+  <si>
+    <t>8613443665</t>
+  </si>
+  <si>
+    <t>8613444648</t>
+  </si>
+  <si>
+    <t>8613444650</t>
+  </si>
+  <si>
+    <t>8613444651</t>
+  </si>
+  <si>
+    <t>8613444652</t>
+  </si>
+  <si>
+    <t>8613444653</t>
+  </si>
+  <si>
+    <t>8613444654</t>
+  </si>
+  <si>
+    <t>8613444656</t>
+  </si>
+  <si>
+    <t>8613444657</t>
+  </si>
+  <si>
+    <t>8613444658</t>
+  </si>
+  <si>
+    <t>8613444659</t>
+  </si>
+  <si>
+    <t>8613444660</t>
+  </si>
+  <si>
+    <t>8613444662</t>
+  </si>
+  <si>
+    <t>8613444664</t>
+  </si>
+  <si>
+    <t>8613444666</t>
+  </si>
+  <si>
+    <t>8613445648</t>
+  </si>
+  <si>
+    <t>8613445649</t>
+  </si>
+  <si>
+    <t>8613445650</t>
+  </si>
+  <si>
+    <t>8613445651</t>
+  </si>
+  <si>
+    <t>8613445656</t>
+  </si>
+  <si>
+    <t>8613445657</t>
+  </si>
+  <si>
+    <t>8613445658</t>
+  </si>
+  <si>
+    <t>8613445660</t>
+  </si>
+  <si>
+    <t>8613445661</t>
+  </si>
+  <si>
+    <t>8613445664</t>
+  </si>
+  <si>
+    <t>8613445665</t>
+  </si>
+  <si>
+    <t>8613446648</t>
+  </si>
+  <si>
+    <t>8613446649</t>
+  </si>
+  <si>
+    <t>8613446650</t>
+  </si>
+  <si>
+    <t>8613446651</t>
+  </si>
+  <si>
+    <t>8613446652</t>
+  </si>
+  <si>
+    <t>8613446654</t>
+  </si>
+  <si>
+    <t>8613446655</t>
+  </si>
+  <si>
+    <t>8613446656</t>
+  </si>
+  <si>
+    <t>8613446657</t>
+  </si>
+  <si>
+    <t>8613446658</t>
+  </si>
+  <si>
+    <t>8613446660</t>
+  </si>
+  <si>
+    <t>8613446661</t>
+  </si>
+  <si>
+    <t>8613446663</t>
+  </si>
+  <si>
+    <t>8613446665</t>
+  </si>
+  <si>
+    <t>8613447649</t>
+  </si>
+  <si>
+    <t>8613447650</t>
+  </si>
+  <si>
+    <t>8613447651</t>
+  </si>
+  <si>
+    <t>8613447653</t>
+  </si>
+  <si>
+    <t>LANGS6</t>
+  </si>
+  <si>
+    <t>HSTP</t>
+  </si>
+  <si>
+    <t>HFHSS03FE01BHW</t>
+  </si>
+  <si>
+    <t>BOZGS9</t>
+  </si>
+  <si>
+    <t>FUYGS11</t>
+  </si>
+  <si>
+    <t>CUZDS1</t>
+  </si>
+  <si>
+    <t>HFGSB</t>
+  </si>
+  <si>
+    <t>HNADS1</t>
+  </si>
+  <si>
+    <t>MASDS1</t>
+  </si>
+  <si>
+    <t>ANQGS1</t>
+  </si>
+  <si>
+    <t>FUYDS2</t>
+  </si>
+  <si>
+    <t>XUCGS1</t>
+  </si>
+  <si>
+    <t>LANGS9</t>
+  </si>
+  <si>
+    <t>CHIGS5</t>
+  </si>
+  <si>
+    <t>FUYGS15</t>
+  </si>
+  <si>
+    <t>CUZGS1</t>
+  </si>
+  <si>
+    <t>HFGS1</t>
+  </si>
+  <si>
+    <t>BBUGS1</t>
+  </si>
+  <si>
+    <t>HNADS2</t>
+  </si>
+  <si>
+    <t>MASDS2</t>
+  </si>
+  <si>
+    <t>ANQDS2</t>
+  </si>
+  <si>
+    <t>SZOGS1</t>
+  </si>
+  <si>
+    <t>BOZDS2</t>
+  </si>
+  <si>
+    <t>HBEGS1</t>
+  </si>
+  <si>
+    <t>TLIGS1</t>
+  </si>
+  <si>
+    <t>XUCDS2</t>
+  </si>
+  <si>
+    <t>LANGS1</t>
+  </si>
+  <si>
+    <t>FUYGS2</t>
+  </si>
+  <si>
+    <t>CUZGS2</t>
+  </si>
+  <si>
+    <t>HFGS2</t>
+  </si>
+  <si>
+    <t>BBUGS2</t>
+  </si>
+  <si>
+    <t>WUHGS1</t>
+  </si>
+  <si>
+    <t>ANQGS2</t>
+  </si>
+  <si>
+    <t>SZOGS2</t>
+  </si>
+  <si>
+    <t>HUSGS2</t>
+  </si>
+  <si>
+    <t>HBEGS2</t>
+  </si>
+  <si>
+    <t>TLIGS3</t>
+  </si>
+  <si>
+    <t>XUCGS2</t>
+  </si>
+  <si>
+    <t>LANGS2</t>
+  </si>
+  <si>
+    <t>HFGS15</t>
+  </si>
+  <si>
+    <t>CHIGS6</t>
+  </si>
+  <si>
+    <t>FUYGS16</t>
+  </si>
+  <si>
+    <t>CUZGS3</t>
+  </si>
+  <si>
+    <t>HFGS3</t>
+  </si>
+  <si>
+    <t>BBUGS3</t>
+  </si>
+  <si>
+    <t>WUHGS2</t>
+  </si>
+  <si>
+    <t>HNAGS2</t>
+  </si>
+  <si>
+    <t>ANQGS10</t>
+  </si>
+  <si>
+    <t>SZOGS3</t>
+  </si>
+  <si>
+    <t>FUYGS3</t>
+  </si>
+  <si>
+    <t>HUSGS3</t>
+  </si>
+  <si>
+    <t>LANGS3</t>
+  </si>
+  <si>
+    <t>HFGS16</t>
+  </si>
+  <si>
+    <t>FUYGS8</t>
+  </si>
+  <si>
+    <t>CUZGS4</t>
+  </si>
+  <si>
+    <t>HFGS4</t>
+  </si>
+  <si>
+    <t>BBUGS4</t>
+  </si>
+  <si>
+    <t>WUHGS3</t>
+  </si>
+  <si>
+    <t>HNAGS3</t>
+  </si>
+  <si>
+    <t>ANQGS4</t>
+  </si>
+  <si>
+    <t>SZOGS4</t>
+  </si>
+  <si>
+    <t>FUYGS4</t>
+  </si>
+  <si>
+    <t>HUSGS5</t>
+  </si>
+  <si>
+    <t>BOZGS4</t>
+  </si>
+  <si>
+    <t>TLIGS2</t>
+  </si>
+  <si>
+    <t>LANGS4</t>
+  </si>
+  <si>
+    <t>CHIGS4</t>
+  </si>
+  <si>
+    <t>FUYGS13</t>
+  </si>
+  <si>
+    <t>HFGS10</t>
+  </si>
+  <si>
+    <t>CUZGS5</t>
+  </si>
+  <si>
+    <t>HFGS5</t>
+  </si>
+  <si>
+    <t>ANQGS5</t>
+  </si>
+  <si>
+    <t>SZOGS5</t>
+  </si>
+  <si>
+    <t>FUYGS5</t>
+  </si>
+  <si>
+    <t>BOZGS5</t>
+  </si>
+  <si>
+    <t>HBEGS5</t>
+  </si>
+  <si>
+    <t>LANDS2</t>
+  </si>
+  <si>
+    <t>MASGS5</t>
+  </si>
+  <si>
+    <t>FUYGS14</t>
+  </si>
+  <si>
+    <t>HFGS12</t>
+  </si>
+  <si>
+    <t>CUZGS6</t>
+  </si>
+  <si>
+    <t>HFGS6</t>
+  </si>
+  <si>
+    <t>BBUGS6</t>
+  </si>
+  <si>
+    <t>HNAGS4</t>
+  </si>
+  <si>
+    <t>MASGS6</t>
+  </si>
+  <si>
+    <t>ANQGS6</t>
+  </si>
+  <si>
+    <t>SZOGS6</t>
+  </si>
+  <si>
+    <t>FUYGS6</t>
+  </si>
+  <si>
+    <t>BOZGS6</t>
+  </si>
+  <si>
+    <t>HBEGS6</t>
+  </si>
+  <si>
+    <t>XUCGS6</t>
+  </si>
+  <si>
+    <t>WUHGS7</t>
+  </si>
+  <si>
+    <t>HFGS13</t>
+  </si>
+  <si>
+    <t>CUZGS7</t>
+  </si>
+  <si>
+    <t>HFGS7</t>
+  </si>
+  <si>
+    <t>WUHGS6</t>
+  </si>
+  <si>
+    <t>E214_INTAL_TT0</t>
+  </si>
+  <si>
+    <t>861385260</t>
+  </si>
+  <si>
+    <t>8613840550</t>
+  </si>
+  <si>
+    <t>8613840551</t>
+  </si>
+  <si>
+    <t>8613840552</t>
+  </si>
+  <si>
+    <t>8613840553</t>
+  </si>
+  <si>
+    <t>8613840554</t>
+  </si>
+  <si>
+    <t>8613840555</t>
+  </si>
+  <si>
+    <t>8613840556</t>
+  </si>
+  <si>
+    <t>8613840557</t>
+  </si>
+  <si>
+    <t>8613840558</t>
+  </si>
+  <si>
+    <t>8613840559</t>
+  </si>
+  <si>
+    <t>8613840560</t>
+  </si>
+  <si>
+    <t>8613840561</t>
+  </si>
+  <si>
+    <t>8613840562</t>
+  </si>
+  <si>
+    <t>8613840563</t>
+  </si>
+  <si>
+    <t>8613840564</t>
+  </si>
+  <si>
+    <t>8613840565</t>
+  </si>
+  <si>
+    <t>8613840566</t>
+  </si>
+  <si>
+    <t>8613840567</t>
+  </si>
+  <si>
+    <t>8613840568</t>
+  </si>
+  <si>
+    <t>8613840569</t>
+  </si>
+  <si>
+    <t>861384300</t>
+  </si>
+  <si>
+    <t>8613843010</t>
+  </si>
+  <si>
+    <t>8613843011</t>
+  </si>
+  <si>
+    <t>8613843012</t>
+  </si>
+  <si>
+    <t>8613843013</t>
+  </si>
+  <si>
+    <t>8613843014</t>
+  </si>
+  <si>
+    <t>8613843015</t>
+  </si>
+  <si>
+    <t>8613843016</t>
+  </si>
+  <si>
+    <t>8613843017</t>
+  </si>
+  <si>
+    <t>8613843018</t>
+  </si>
+  <si>
+    <t>8613843019</t>
+  </si>
+  <si>
+    <t>8613843020</t>
+  </si>
+  <si>
+    <t>8613843021</t>
+  </si>
+  <si>
+    <t>8613843022</t>
+  </si>
+  <si>
+    <t>8613843023</t>
+  </si>
+  <si>
+    <t>8613843024</t>
+  </si>
+  <si>
+    <t>8613843025</t>
+  </si>
+  <si>
+    <t>8613843026</t>
+  </si>
+  <si>
+    <t>8613843027</t>
+  </si>
+  <si>
+    <t>8613843028</t>
+  </si>
+  <si>
+    <t>8613843029</t>
+  </si>
+  <si>
+    <t>8613843030</t>
+  </si>
+  <si>
+    <t>8613843031</t>
+  </si>
+  <si>
+    <t>8613843032</t>
+  </si>
+  <si>
+    <t>8613843033</t>
+  </si>
+  <si>
+    <t>8613843034</t>
+  </si>
+  <si>
+    <t>8613843035</t>
+  </si>
+  <si>
+    <t>8613843036</t>
+  </si>
+  <si>
+    <t>8613843037</t>
+  </si>
+  <si>
+    <t>8613843038</t>
+  </si>
+  <si>
+    <t>8613843039</t>
+  </si>
+  <si>
+    <t>8613843040</t>
+  </si>
+  <si>
+    <t>8613843041</t>
+  </si>
+  <si>
+    <t>8613843042</t>
+  </si>
+  <si>
+    <t>8613843043</t>
+  </si>
+  <si>
+    <t>8613843044</t>
+  </si>
+  <si>
+    <t>8613843045</t>
+  </si>
+  <si>
+    <t>8613843046</t>
+  </si>
+  <si>
+    <t>8613843047</t>
+  </si>
+  <si>
+    <t>8613843048</t>
+  </si>
+  <si>
+    <t>8613843049</t>
+  </si>
+  <si>
+    <t>8613843050</t>
+  </si>
+  <si>
+    <t>8613843051</t>
+  </si>
+  <si>
+    <t>8613843052</t>
+  </si>
+  <si>
+    <t>8613843053</t>
+  </si>
+  <si>
+    <t>8613843054</t>
+  </si>
+  <si>
+    <t>HFHSS06FE02BHW</t>
+  </si>
+  <si>
+    <t>HFHSS03FE02BHW</t>
+  </si>
+  <si>
+    <t>WUHHSS02FE01BHW</t>
+  </si>
+  <si>
+    <t>WUHHSS05FE01BER</t>
+  </si>
+  <si>
+    <t>HFHSS06FE01BHW</t>
+  </si>
+  <si>
+    <t>WUHHSS05FE02BER</t>
+  </si>
+  <si>
+    <t>WUHHSS04FE02BER</t>
+  </si>
+  <si>
+    <t>WUHHSS04FE01BER</t>
+  </si>
+  <si>
+    <t>HFHSS01FE02BHW</t>
+  </si>
+  <si>
+    <t>HFHSS01FE01BHW</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>861353</t>
+  </si>
+  <si>
+    <t>8613406</t>
+  </si>
+  <si>
+    <t>8613410</t>
+  </si>
+  <si>
+    <t>8613411</t>
+  </si>
+  <si>
+    <t>8613412</t>
+  </si>
+  <si>
+    <t>8613413</t>
+  </si>
+  <si>
+    <t>8613414</t>
+  </si>
+  <si>
+    <t>8613415</t>
+  </si>
+  <si>
+    <t>8613416</t>
+  </si>
+  <si>
+    <t>8613417</t>
+  </si>
+  <si>
+    <t>8613418</t>
+  </si>
+  <si>
+    <t>8613420</t>
+  </si>
+  <si>
+    <t>8613421</t>
+  </si>
+  <si>
+    <t>8613422</t>
+  </si>
+  <si>
+    <t>8613423</t>
+  </si>
+  <si>
+    <t>8613424</t>
+  </si>
+  <si>
+    <t>8613425</t>
+  </si>
+  <si>
+    <t>8613427</t>
+  </si>
+  <si>
+    <t>8613428</t>
+  </si>
+  <si>
+    <t>8613430</t>
+  </si>
+  <si>
+    <t>8613431</t>
+  </si>
+  <si>
+    <t>8613432</t>
+  </si>
+  <si>
+    <t>8613433</t>
+  </si>
+  <si>
+    <t>8613434</t>
+  </si>
+  <si>
+    <t>8613435</t>
+  </si>
+  <si>
+    <t>8613438</t>
+  </si>
+  <si>
+    <t>8613439</t>
+  </si>
+  <si>
+    <t>8613450</t>
+  </si>
+  <si>
+    <t>8613452</t>
+  </si>
+  <si>
+    <t>SHHSTP</t>
+  </si>
+  <si>
+    <t>GZHSTP</t>
+  </si>
+  <si>
+    <t>JNHSTP</t>
+  </si>
+  <si>
+    <t>CDHSTP</t>
+  </si>
+  <si>
+    <t>BJHSTP</t>
+  </si>
+  <si>
+    <t>CQHSTP</t>
+  </si>
+  <si>
+    <t>8615799236</t>
+  </si>
+  <si>
+    <t>8615799237</t>
+  </si>
+  <si>
+    <t>8615799238</t>
+  </si>
+  <si>
+    <t>8615799239</t>
+  </si>
+  <si>
+    <t>8615799240</t>
+  </si>
+  <si>
+    <t>8615799241</t>
+  </si>
+  <si>
+    <t>8615799242</t>
+  </si>
+  <si>
+    <t>8615799243</t>
+  </si>
+  <si>
+    <t>8615799244</t>
+  </si>
+  <si>
+    <t>8615799245</t>
+  </si>
+  <si>
+    <t>8615799246</t>
+  </si>
+  <si>
+    <t>8615799247</t>
+  </si>
+  <si>
+    <t>8615799248</t>
+  </si>
+  <si>
+    <t>8615799249</t>
+  </si>
+  <si>
+    <t>8615799280</t>
+  </si>
+  <si>
+    <t>8615799281</t>
+  </si>
+  <si>
+    <t>8615799282</t>
+  </si>
+  <si>
+    <t>8615799283</t>
+  </si>
+  <si>
+    <t>8615799284</t>
+  </si>
+  <si>
+    <t>8615799285</t>
+  </si>
+  <si>
+    <t>8615799286</t>
+  </si>
+  <si>
+    <t>8615799287</t>
+  </si>
+  <si>
+    <t>8615799288</t>
+  </si>
+  <si>
+    <t>8615799289</t>
+  </si>
+  <si>
+    <t>861384965203730</t>
+  </si>
+  <si>
+    <t>861572444809193</t>
+  </si>
+  <si>
+    <t>L5L6</t>
+  </si>
+  <si>
+    <t>L1L2</t>
+  </si>
+  <si>
+    <t>L3L4</t>
+  </si>
+  <si>
+    <t>HZHSTP</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +1116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +1124,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +1442,3498 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>100</v>
+      </c>
+      <c r="D98" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" t="s">
+        <v>233</v>
+      </c>
+      <c r="D30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" t="s">
+        <v>244</v>
+      </c>
+      <c r="D41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" t="s">
+        <v>246</v>
+      </c>
+      <c r="D43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D44" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" t="s">
+        <v>250</v>
+      </c>
+      <c r="D47" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" t="s">
+        <v>253</v>
+      </c>
+      <c r="D50" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" t="s">
+        <v>254</v>
+      </c>
+      <c r="D51" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" t="s">
+        <v>255</v>
+      </c>
+      <c r="D52" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" t="s">
+        <v>257</v>
+      </c>
+      <c r="D54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" t="s">
+        <v>258</v>
+      </c>
+      <c r="D55" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" t="s">
+        <v>259</v>
+      </c>
+      <c r="D56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>204</v>
+      </c>
+      <c r="C57" t="s">
+        <v>260</v>
+      </c>
+      <c r="D57" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" t="s">
+        <v>261</v>
+      </c>
+      <c r="D58" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" t="s">
+        <v>262</v>
+      </c>
+      <c r="D59" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60" t="s">
+        <v>263</v>
+      </c>
+      <c r="D60" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" t="s">
+        <v>264</v>
+      </c>
+      <c r="D61" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" t="s">
+        <v>265</v>
+      </c>
+      <c r="D62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" t="s">
+        <v>266</v>
+      </c>
+      <c r="D63" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" t="s">
+        <v>267</v>
+      </c>
+      <c r="D64" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" t="s">
+        <v>268</v>
+      </c>
+      <c r="D65" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" t="s">
+        <v>271</v>
+      </c>
+      <c r="D68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>293</v>
+      </c>
+      <c r="D21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D28" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>301</v>
+      </c>
+      <c r="D29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>302</v>
+      </c>
+      <c r="D30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>303</v>
+      </c>
+      <c r="D31" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>307</v>
+      </c>
+      <c r="D35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>308</v>
+      </c>
+      <c r="D36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>310</v>
+      </c>
+      <c r="D38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>311</v>
+      </c>
+      <c r="D39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>312</v>
+      </c>
+      <c r="D40" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>313</v>
+      </c>
+      <c r="D41" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>314</v>
+      </c>
+      <c r="D42" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>315</v>
+      </c>
+      <c r="D43" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>316</v>
+      </c>
+      <c r="D44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>317</v>
+      </c>
+      <c r="D45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>318</v>
+      </c>
+      <c r="D46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D47" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" t="s">
+        <v>341</v>
+      </c>
+      <c r="D17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" t="s">
+        <v>347</v>
+      </c>
+      <c r="D23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" t="s">
+        <v>348</v>
+      </c>
+      <c r="D24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D26" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" t="s">
+        <v>351</v>
+      </c>
+      <c r="D27" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>